--- a/Student2School assignment tools/SplitStudents2UrbanRural/gyms2gels.xlsx
+++ b/Student2School assignment tools/SplitStudents2UrbanRural/gyms2gels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Χάρης\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tools for Staff\_My tools\SplitStudents2UrbanRural\ver 1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>ΗΜΕΡΗΣΙΟ ΓΥΜΝΑΣΙΟ ΑΣΗΜΙΟΥ ΗΡΑΚΛΕΙΟΥ</t>
   </si>
@@ -186,16 +186,36 @@
   </si>
   <si>
     <t>ΓΕΛ Γαζίου</t>
+  </si>
+  <si>
+    <t>ΚΑΛΛΙΤΕΧΝΙΚΟ ΓΥΜΝΑΣΙΟ ΗΡΑΚΛΕΙΟΥ ΜΕ ΛΥΚΕΙΑΚΕΣ ΤΑΞΕΙΣ</t>
+  </si>
+  <si>
+    <t>Καλλιτεχνικό</t>
+  </si>
+  <si>
+    <t>Μουσικό Σχολείο ΗρακλείουΓυμνάσιο με Λυκειακές Τάξεις</t>
+  </si>
+  <si>
+    <t>Μουσικό</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -222,8 +242,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -504,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,6 +775,22 @@
         <v>52</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A43">
     <sortState ref="A2:A65">
@@ -761,5 +798,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>